--- a/cititask1/weatherand trip.xlsx
+++ b/cititask1/weatherand trip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1000" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="20620" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="17">
   <si>
     <t>sunny</t>
   </si>
@@ -71,9 +71,6 @@
   <si>
     <t>dec</t>
   </si>
-  <si>
-    <t>avg trip</t>
-  </si>
 </sst>
 </file>
 
@@ -121,8 +118,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,15 +155,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,11 +218,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$I$1:$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sunny #</c:v>
+                  <c:v>sunny</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -191,7 +232,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:f>Sheet1!$H$3:$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -235,45 +276,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:f>Sheet1!$I$3:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>188919.0</c:v>
+                  <c:v>10495.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134715.0</c:v>
+                  <c:v>7924.411764705881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147606.0</c:v>
+                  <c:v>12300.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470422.0</c:v>
+                  <c:v>23521.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>751628.0</c:v>
+                  <c:v>31317.83333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>567799.0</c:v>
+                  <c:v>35487.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>749493.0</c:v>
+                  <c:v>35690.14285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>995122.0</c:v>
+                  <c:v>38273.92307692308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.145594E6</c:v>
+                  <c:v>44061.3076923077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.018884E6</c:v>
+                  <c:v>42453.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>764192.0</c:v>
+                  <c:v>33225.73913043478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>503773.0</c:v>
+                  <c:v>29633.70588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,15 +322,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$J$1:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rainy #</c:v>
+                  <c:v>rainy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -299,7 +340,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:f>Sheet1!$H$3:$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -343,45 +384,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:f>Sheet1!$J$3:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>65594.0</c:v>
+                  <c:v>8199.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5733.0</c:v>
+                  <c:v>2866.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140953.0</c:v>
+                  <c:v>11746.08333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181968.0</c:v>
+                  <c:v>18196.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210358.0</c:v>
+                  <c:v>30051.14285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>373420.0</c:v>
+                  <c:v>26672.85714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336183.0</c:v>
+                  <c:v>33618.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>183922.0</c:v>
+                  <c:v>36784.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>144105.0</c:v>
+                  <c:v>36026.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193393.0</c:v>
+                  <c:v>27627.57142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>223053.0</c:v>
+                  <c:v>31864.71428571428</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300352.0</c:v>
+                  <c:v>21453.71428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,15 +430,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:f>Sheet1!$K$1:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>snow #</c:v>
+                  <c:v>snow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -407,7 +448,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:f>Sheet1!$H$3:$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -451,18 +492,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:f>Sheet1!$K$3:$K$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40331.0</c:v>
+                  <c:v>5761.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62215.0</c:v>
+                  <c:v>5655.909090909091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62418.0</c:v>
+                  <c:v>6935.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -506,11 +547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="971502232"/>
-        <c:axId val="971497848"/>
+        <c:axId val="2083935016"/>
+        <c:axId val="2083937992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="971502232"/>
+        <c:axId val="2083935016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="971497848"/>
+        <c:crossAx val="2083937992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,18 +568,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="971497848"/>
+        <c:axId val="2083937992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="971502232"/>
+        <c:crossAx val="2083935016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,28 +618,29 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$2</c:f>
+              <c:f>Sheet1!$I$17:$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sunny avg trip</c:v>
+                  <c:v>sunny</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:f>Sheet1!$H$19:$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -642,56 +684,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$14</c:f>
+              <c:f>Sheet1!$I$19:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10495.5</c:v>
+                  <c:v>10669.19047619048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7924.411764705881</c:v>
+                  <c:v>10267.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12300.5</c:v>
+                  <c:v>14626.90476190476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23521.1</c:v>
+                  <c:v>25370.42105263158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31317.83333333333</c:v>
+                  <c:v>31462.05882352941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35487.4375</c:v>
+                  <c:v>32578.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35690.14285714285</c:v>
+                  <c:v>32563.36842105263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38273.92307692308</c:v>
+                  <c:v>32288.66666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44061.3076923077</c:v>
+                  <c:v>33764.47826086957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42453.5</c:v>
+                  <c:v>29298.57894736842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33225.73913043478</c:v>
+                  <c:v>19568.63157894737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29633.70588235294</c:v>
+                  <c:v>13924.13333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$J$2</c:f>
+              <c:f>Sheet1!$J$17:$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -700,10 +743,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:f>Sheet1!$H$19:$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -747,56 +792,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$14</c:f>
+              <c:f>Sheet1!$J$19:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8199.25</c:v>
+                  <c:v>9913.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2866.5</c:v>
+                  <c:v>4502.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11746.08333333333</c:v>
+                  <c:v>13376.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18196.8</c:v>
+                  <c:v>17158.36363636364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30051.14285714286</c:v>
+                  <c:v>23661.57142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26672.85714285714</c:v>
+                  <c:v>28531.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33618.3</c:v>
+                  <c:v>29178.16666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36784.4</c:v>
+                  <c:v>26937.28571428571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36026.25</c:v>
+                  <c:v>25329.14285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27627.57142857143</c:v>
+                  <c:v>22669.83333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31864.71428571428</c:v>
+                  <c:v>12957.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21453.71428571428</c:v>
+                  <c:v>11321.85714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$K$2</c:f>
+              <c:f>Sheet1!$K$17:$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -805,10 +851,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:f>Sheet1!$H$19:$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -852,21 +900,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$14</c:f>
+              <c:f>Sheet1!$K$19:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5761.571428571428</c:v>
+                  <c:v>6104.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5655.909090909091</c:v>
+                  <c:v>4326.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6935.333333333333</c:v>
+                  <c:v>14008.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>20082.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -887,14 +935,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>3810.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>14033.33333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -904,12 +953,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1509893192"/>
-        <c:axId val="1509922152"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2046998584"/>
+        <c:axId val="2085442200"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1509893192"/>
+        <c:axId val="2046998584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1509922152"/>
+        <c:crossAx val="2085442200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -926,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1509922152"/>
+        <c:axId val="2085442200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +987,859 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1509893192"/>
+        <c:crossAx val="2046998584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51:$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sunny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$53:$B$76</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$53:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10669.19047619048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10267.8125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14626.90476190476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25370.42105263158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31462.05882352941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32578.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32563.36842105263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32288.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33764.47826086957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29298.57894736842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19568.63157894737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13924.13333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10495.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7924.411764705881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12300.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23521.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31317.83333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35487.4375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35690.14285714285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38273.92307692308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44061.3076923077</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42453.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33225.73913043478</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29633.70588235294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51:$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rainy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$53:$B$76</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$53:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9913.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4502.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13376.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17158.36363636364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23661.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28531.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29178.16666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26937.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25329.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22669.83333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12957.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11321.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8199.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2866.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11746.08333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18196.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30051.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26672.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33618.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36784.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36026.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27627.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31864.71428571428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21453.71428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51:$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>snow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$53:$B$76</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>jan</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>feb</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>apr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>may</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>jul</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>aug</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>sep</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>oct</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>nov</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>dec</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$53:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6104.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4326.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20082.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3810.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14033.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5761.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5655.909090909091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6935.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105299672"/>
+        <c:axId val="2098812344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105299672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2098812344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2098812344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105299672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,19 +1866,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -994,19 +1896,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1016,6 +1918,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1346,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1393,9 +2325,6 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1850,6 +2779,926 @@
       </c>
       <c r="K14" s="1" t="e">
         <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>224053</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>49566</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>36628</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <f>B19/C19</f>
+        <v>10669.190476190477</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:J30" si="3">D19/E19</f>
+        <v>9913.2000000000007</v>
+      </c>
+      <c r="K19" s="1">
+        <f>F19/G19</f>
+        <v>6104.666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>164285</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>27017</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>43265</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20:I30" si="4">B20/C20</f>
+        <v>10267.8125</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>4502.833333333333</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20:K30" si="5">F20/G20</f>
+        <v>4326.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>307165</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>107013</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>42024</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>14626.904761904761</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>13376.625</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>482038</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>188742</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>20082</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>25370.42105263158</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>17158.363636363636</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>534855</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>331262</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>31462.058823529413</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>23661.571428571428</v>
+      </c>
+      <c r="K23" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>651561</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>285319</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>32578.05</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>28531.9</v>
+      </c>
+      <c r="K24" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>618704</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>350138</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>32563.36842105263</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>29178.166666666668</v>
+      </c>
+      <c r="K25" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>774928</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>188561</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>32288.666666666668</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>26937.285714285714</v>
+      </c>
+      <c r="K26" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>776583</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>177304</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>33764.478260869568</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>25329.142857142859</v>
+      </c>
+      <c r="K27" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>556673</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>272038</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>29298.57894736842</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>22669.833333333332</v>
+      </c>
+      <c r="K28" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>371804</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>129577</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>7620</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>19568.63157894737</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>12957.7</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="5"/>
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>208862</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>158506</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>42100</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>13924.133333333333</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>11321.857142857143</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>14033.333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>10669.190476190477</v>
+      </c>
+      <c r="D53">
+        <v>9913.2000000000007</v>
+      </c>
+      <c r="E53">
+        <v>6104.666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>10267.8125</v>
+      </c>
+      <c r="D54">
+        <v>4502.833333333333</v>
+      </c>
+      <c r="E54">
+        <v>4326.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>2015</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>14626.904761904761</v>
+      </c>
+      <c r="D55">
+        <v>13376.625</v>
+      </c>
+      <c r="E55">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2015</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>25370.42105263158</v>
+      </c>
+      <c r="D56">
+        <v>17158.363636363636</v>
+      </c>
+      <c r="E56">
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>2015</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>31462.058823529413</v>
+      </c>
+      <c r="D57">
+        <v>23661.571428571428</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>2015</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>32578.05</v>
+      </c>
+      <c r="D58">
+        <v>28531.9</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>2015</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>32563.36842105263</v>
+      </c>
+      <c r="D59">
+        <v>29178.166666666668</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>2015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>32288.666666666668</v>
+      </c>
+      <c r="D60">
+        <v>26937.285714285714</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>2015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>33764.478260869568</v>
+      </c>
+      <c r="D61">
+        <v>25329.142857142859</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2015</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>29298.57894736842</v>
+      </c>
+      <c r="D62">
+        <v>22669.833333333332</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>2015</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>19568.63157894737</v>
+      </c>
+      <c r="D63">
+        <v>12957.7</v>
+      </c>
+      <c r="E63">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>2015</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>13924.133333333333</v>
+      </c>
+      <c r="D64">
+        <v>11321.857142857143</v>
+      </c>
+      <c r="E64">
+        <v>14033.333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>2014</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>10495.5</v>
+      </c>
+      <c r="D65">
+        <v>8199.25</v>
+      </c>
+      <c r="E65">
+        <v>5761.5714285714284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>2014</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>7924.411764705882</v>
+      </c>
+      <c r="D66">
+        <v>2866.5</v>
+      </c>
+      <c r="E66">
+        <v>5655.909090909091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2014</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>12300.5</v>
+      </c>
+      <c r="D67">
+        <v>11746.083333333334</v>
+      </c>
+      <c r="E67">
+        <v>6935.333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>2014</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>23521.1</v>
+      </c>
+      <c r="D68">
+        <v>18196.8</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>2014</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>31317.833333333332</v>
+      </c>
+      <c r="D69">
+        <v>30051.142857142859</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>2014</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>35487.4375</v>
+      </c>
+      <c r="D70">
+        <v>26672.857142857141</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>2014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>35690.142857142855</v>
+      </c>
+      <c r="D71">
+        <v>33618.300000000003</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>2014</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>38273.923076923078</v>
+      </c>
+      <c r="D72">
+        <v>36784.400000000001</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>44061.307692307695</v>
+      </c>
+      <c r="D73">
+        <v>36026.25</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2014</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>42453.5</v>
+      </c>
+      <c r="D74">
+        <v>27627.571428571428</v>
+      </c>
+      <c r="E74" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>2014</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>33225.739130434784</v>
+      </c>
+      <c r="D75">
+        <v>31864.714285714286</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>29633.705882352941</v>
+      </c>
+      <c r="D76">
+        <v>21453.714285714286</v>
+      </c>
+      <c r="E76" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
